--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 1 (35, 1, 31, 14, 19)/MDD 4 (27, 47, 13, 25, 5)/ANN_128nodes_Uniform0.05Virtual_Control(35, 1, 31, 14, 19)_MDD(27, 47, 13, 25, 5)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 1 (35, 1, 31, 14, 19)/MDD 4 (27, 47, 13, 25, 5)/ANN_128nodes_Uniform0.05Virtual_Control(35, 1, 31, 14, 19)_MDD(27, 47, 13, 25, 5)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -456,10 +456,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9999955700269862</v>
+        <v>0.9999986599940173</v>
       </c>
       <c r="E2">
-        <v>0.9999955700269862</v>
+        <v>0.9999986599940173</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.9999999999996445</v>
+        <v>0.9999999983753163</v>
       </c>
       <c r="E3">
-        <v>0.9999999999996445</v>
+        <v>0.9999999983753163</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.9999878145592138</v>
+        <v>0.9316902151288704</v>
       </c>
       <c r="E4">
-        <v>0.9999878145592138</v>
+        <v>0.9316902151288704</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>3.116700158848504E-15</v>
+        <v>4.333885456476208E-09</v>
       </c>
       <c r="E5">
-        <v>3.116700158848504E-15</v>
+        <v>4.333885456476208E-09</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0.0006108236513865314</v>
+        <v>0.007776851039568014</v>
       </c>
       <c r="E6">
-        <v>0.0006108236513865314</v>
+        <v>0.007776851039568014</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.999999995093428</v>
+        <v>0.9999991136584325</v>
       </c>
       <c r="E7">
-        <v>4.906572037555179E-09</v>
+        <v>8.86341567474247E-07</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -540,10 +540,10 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0001388036858841189</v>
+        <v>2.541333987880357E-07</v>
       </c>
       <c r="E8">
-        <v>0.9998611963141159</v>
+        <v>0.9999997458666012</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -554,10 +554,10 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.7733901171244228</v>
+        <v>0.9567689275690073</v>
       </c>
       <c r="E9">
-        <v>0.2266098828755772</v>
+        <v>0.04323107243099267</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -579,19 +579,19 @@
         <v>15</v>
       </c>
       <c r="C11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>0.8830129689873323</v>
+        <v>0.03082207722633906</v>
       </c>
       <c r="E11">
-        <v>0.1169870310126677</v>
+        <v>0.969177922773661</v>
       </c>
       <c r="F11">
-        <v>6.157216548919678</v>
+        <v>5.516141891479492</v>
       </c>
       <c r="G11">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
